--- a/data/trans_orig/P32E$amigos_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32E$amigos_2023-Provincia-trans_orig.xlsx
@@ -822,7 +822,7 @@
         <v>4966</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2390</v>
+        <v>2155</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>6437</v>
@@ -831,7 +831,7 @@
         <v>0.7715167250231996</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3713182654306652</v>
+        <v>0.3348589738988978</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -904,7 +904,7 @@
         <v>2681</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5486205742062245</v>
+        <v>0.5486205742062246</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4042</v>
+        <v>4280</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2284832749768004</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6279477386446504</v>
+        <v>0.6649581361629027</v>
       </c>
     </row>
     <row r="8">
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6709</v>
+        <v>6795</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1914992233589599</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6713982837900657</v>
+        <v>0.6799846018578196</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7659</v>
+        <v>8019</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2554165797095049</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.649265299865739</v>
+        <v>0.6797486517348688</v>
       </c>
     </row>
     <row r="10">
@@ -1083,16 +1083,16 @@
         <v>7281</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2620</v>
+        <v>2470</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>9993</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7285806429390218</v>
+        <v>0.7285806429390219</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2621704076475987</v>
+        <v>0.2472088527704043</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1117,16 +1117,16 @@
         <v>9085</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4605</v>
+        <v>4014</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>11797</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7700837269704168</v>
+        <v>0.7700837269704169</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3903440879395552</v>
+        <v>0.3402927522700135</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6021</v>
+        <v>6728</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.212900068850869</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6025087761744554</v>
+        <v>0.6732328709010594</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6924</v>
+        <v>6586</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1803452446722005</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5869138611631164</v>
+        <v>0.5582894963212833</v>
       </c>
     </row>
     <row r="13">
@@ -1307,19 +1307,19 @@
         <v>2552</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>751</v>
+        <v>669</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6523</v>
+        <v>6076</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1571642302617667</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04628736940279229</v>
+        <v>0.04120597246446431</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4017820777653665</v>
+        <v>0.37422578486256</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>2551</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6871</v>
+        <v>6290</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1485317250869957</v>
+        <v>0.1485317250869956</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04515390398804299</v>
+        <v>0.04458832831047747</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3999923041768922</v>
+        <v>0.3661494199259555</v>
       </c>
     </row>
     <row r="15">
@@ -1370,19 +1370,19 @@
         <v>12639</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8483</v>
+        <v>8487</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15299</v>
+        <v>15302</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7785062707416637</v>
+        <v>0.7785062707416635</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5225153843157284</v>
+        <v>0.5227730997578774</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9423735451092891</v>
+        <v>0.9425536111234066</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         <v>12639</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>8267</v>
+        <v>8422</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>15588</v>
+        <v>15528</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.7357455267760946</v>
+        <v>0.7357455267760947</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.4812791849886376</v>
+        <v>0.4902617729330262</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9074190948480492</v>
+        <v>0.9039200284622172</v>
       </c>
     </row>
     <row r="16">
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3315</v>
+        <v>3958</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03756674779755289</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2041907992692823</v>
+        <v>0.2438164648279117</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1470,16 +1470,16 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3171</v>
+        <v>3244</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03550333206853135</v>
+        <v>0.03550333206853134</v>
       </c>
       <c r="V16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1846060139305617</v>
+        <v>0.1888532424429004</v>
       </c>
     </row>
     <row r="17">
@@ -1496,19 +1496,19 @@
         <v>8583</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4426</v>
+        <v>4463</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12586</v>
+        <v>12324</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5286595144144033</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2725920207967065</v>
+        <v>0.2748710009775119</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7752241855684393</v>
+        <v>0.7590948758736841</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>8583</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4480</v>
+        <v>4476</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12187</v>
+        <v>12735</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4996220165927093</v>
+        <v>0.4996220165927092</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2608236733182748</v>
+        <v>0.260552034790953</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7094328586357346</v>
+        <v>0.7413437672324831</v>
       </c>
     </row>
     <row r="18">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3930</v>
+        <v>4114</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05692420092216902</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2420499775916455</v>
+        <v>0.2533796681569646</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5775</v>
+        <v>5855</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1087241983018602</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3361686532671669</v>
+        <v>0.3408538889976511</v>
       </c>
     </row>
     <row r="19">
@@ -1629,16 +1629,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10547</v>
+        <v>10704</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.5749104275699841</v>
+        <v>0.5749104275699842</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8904242966437177</v>
+        <v>0.9036881537872894</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1650,16 +1650,16 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7664</v>
+        <v>7548</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.220743589679554</v>
+        <v>0.2207435896795541</v>
       </c>
       <c r="O19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6619328926467483</v>
+        <v>0.6519439995061687</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1668,19 +1668,19 @@
         <v>9366</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2787</v>
+        <v>3299</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16629</v>
+        <v>16396</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3998487573587775</v>
+        <v>0.3998487573587774</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1189918079483549</v>
+        <v>0.1408566994288422</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7099443634501815</v>
+        <v>0.7000153583217541</v>
       </c>
     </row>
     <row r="20">
@@ -1697,19 +1697,19 @@
         <v>8337</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3037</v>
+        <v>2910</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11044</v>
+        <v>11166</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7038249868047256</v>
+        <v>0.7038249868047259</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2564202463681916</v>
+        <v>0.2456756542854162</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.932396855800225</v>
+        <v>0.9426464445752833</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1718,19 +1718,19 @@
         <v>9265</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6310</v>
+        <v>6007</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11095</v>
+        <v>11086</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8002261204543717</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5450229592627154</v>
+        <v>0.5188711625053385</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9583232941881819</v>
+        <v>0.9575449750714458</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>17602</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12395</v>
+        <v>12129</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20987</v>
+        <v>20949</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7514752512040761</v>
+        <v>0.7514752512040759</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.529184851463388</v>
+        <v>0.5178222652396591</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8959920104924602</v>
+        <v>0.8943798221517252</v>
       </c>
     </row>
     <row r="21">
@@ -1815,7 +1815,7 @@
         <v>6749</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2049</v>
+        <v>1422</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>11845</v>
@@ -1824,7 +1824,7 @@
         <v>0.5697957308033194</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1729443736306197</v>
+        <v>0.1200385793944464</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -1836,19 +1836,19 @@
         <v>4037</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1180</v>
+        <v>1362</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8767</v>
+        <v>8409</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3486856021495914</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1019084098438158</v>
+        <v>0.1176307349964666</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7572154034093775</v>
+        <v>0.7262624529413243</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -1857,19 +1857,19 @@
         <v>10786</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4912</v>
+        <v>4835</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16907</v>
+        <v>17206</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4605028657420468</v>
+        <v>0.4605028657420466</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.209727082587663</v>
+        <v>0.2064366209875006</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7217911048768351</v>
+        <v>0.7345813686538326</v>
       </c>
     </row>
     <row r="23">
@@ -2010,16 +2010,16 @@
         <v>2764</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="T25" s="5" t="n">
         <v>3613</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7651289368494421</v>
+        <v>0.7651289368494419</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2765625316710977</v>
+        <v>0.2745891425450078</v>
       </c>
       <c r="W25" s="6" t="n">
         <v>1</v>
@@ -2086,16 +2086,16 @@
         <v>2115</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0</v>
+        <v>1037</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>2764</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7652977644555947</v>
+        <v>0.7652977644555948</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0</v>
+        <v>0.3752197918947291</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>1</v>
@@ -2120,7 +2120,7 @@
         <v>2964</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="T27" s="5" t="n">
         <v>3613</v>
@@ -2129,7 +2129,7 @@
         <v>0.8204225280417219</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2968849533292959</v>
+        <v>0.2957034708224395</v>
       </c>
       <c r="W27" s="6" t="n">
         <v>1</v>
@@ -2200,19 +2200,19 @@
         <v>6170</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2236</v>
+        <v>2445</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11360</v>
+        <v>11976</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2261236925393964</v>
+        <v>0.2261236925393963</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08194920131008453</v>
+        <v>0.08959215408654328</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4162948837922804</v>
+        <v>0.4388919662174655</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4653</v>
+        <v>4776</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2770001268592128</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6518956882044744</v>
+        <v>0.6691556789079589</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -2242,19 +2242,19 @@
         <v>8147</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3680</v>
+        <v>4081</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13651</v>
+        <v>13675</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2366712216383977</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1068948038928805</v>
+        <v>0.118543505342335</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3965503792127789</v>
+        <v>0.3972498302927217</v>
       </c>
     </row>
     <row r="30">
@@ -2271,19 +2271,19 @@
         <v>21293</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15961</v>
+        <v>15982</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24880</v>
+        <v>24909</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7803036296166037</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5848967345652102</v>
+        <v>0.5856884502676114</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9117706831667354</v>
+        <v>0.9128044359181836</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>8</v>
@@ -2292,16 +2292,16 @@
         <v>6150</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3111</v>
+        <v>3301</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>7137</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.8617578726145814</v>
+        <v>0.8617578726145815</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4358848652308776</v>
+        <v>0.4625129756069645</v>
       </c>
       <c r="P30" s="6" t="n">
         <v>1</v>
@@ -2313,19 +2313,19 @@
         <v>27443</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>21593</v>
+        <v>21942</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>30898</v>
+        <v>31448</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7971904458753378</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.6272601754505652</v>
+        <v>0.6373989123296968</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.897551841410511</v>
+        <v>0.9135276657931513</v>
       </c>
     </row>
     <row r="31">
@@ -2342,19 +2342,19 @@
         <v>9860</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4702</v>
+        <v>5054</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>15705</v>
+        <v>15844</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3613183516760383</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1723074612415251</v>
+        <v>0.1851974957525699</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.575512826929893</v>
+        <v>0.5806369080904056</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4553</v>
+        <v>4715</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2760696884437308</v>
+        <v>0.2760696884437309</v>
       </c>
       <c r="O31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6379006969327549</v>
+        <v>0.6605842461370021</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -2384,19 +2384,19 @@
         <v>11830</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6938</v>
+        <v>6417</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>17937</v>
+        <v>18054</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3436448891365554</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2015438708301494</v>
+        <v>0.1864092954419273</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5210501280585116</v>
+        <v>0.5244585392155139</v>
       </c>
     </row>
     <row r="32">
@@ -2413,19 +2413,19 @@
         <v>9379</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5122</v>
+        <v>5247</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14033</v>
+        <v>14703</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3436892585628875</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1877153374512021</v>
+        <v>0.1922756801241503</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5142646797383619</v>
+        <v>0.5387909037690064</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4429</v>
+        <v>4273</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2025335708035214</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6205399079129044</v>
+        <v>0.5987367272181884</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>15</v>
@@ -2455,19 +2455,19 @@
         <v>10824</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6257</v>
+        <v>6713</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16485</v>
+        <v>16576</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3144253420947564</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1817596642181706</v>
+        <v>0.1949988132328304</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4788716922372253</v>
+        <v>0.4815182228555789</v>
       </c>
     </row>
     <row r="33">
@@ -2535,19 +2535,19 @@
         <v>11562</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>5791</v>
+        <v>5655</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>19725</v>
+        <v>20460</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2632930806326325</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.131881866090197</v>
+        <v>0.1287788663445837</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4491726643949484</v>
+        <v>0.4659277324102259</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -2556,19 +2556,19 @@
         <v>5722</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1662</v>
+        <v>1712</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>11924</v>
+        <v>11255</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2912548992471092</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08458200530321784</v>
+        <v>0.0871565760330151</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.60690806701113</v>
+        <v>0.5728385766630705</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>13</v>
@@ -2577,19 +2577,19 @@
         <v>17284</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10250</v>
+        <v>10252</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>27205</v>
+        <v>27996</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2719363437652982</v>
+        <v>0.2719363437652983</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1612637305757255</v>
+        <v>0.1612960056648843</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4280146476945833</v>
+        <v>0.4404651966229733</v>
       </c>
     </row>
     <row r="35">
@@ -2606,19 +2606,19 @@
         <v>26828</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>19813</v>
+        <v>19186</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>33630</v>
+        <v>33997</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.6109354501532983</v>
+        <v>0.6109354501532984</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4511784465232541</v>
+        <v>0.4369101254081762</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7658287888152421</v>
+        <v>0.7741923303803165</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>11</v>
@@ -2627,19 +2627,19 @@
         <v>12103</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>6492</v>
+        <v>6619</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>16219</v>
+        <v>16094</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.6160005172612918</v>
+        <v>0.6160005172612917</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3304364110030101</v>
+        <v>0.336877441338924</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.8255168396594373</v>
+        <v>0.8191532306852558</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>31</v>
@@ -2648,19 +2648,19 @@
         <v>38931</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>29778</v>
+        <v>29896</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>47003</v>
+        <v>47496</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.6125011103988852</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4685055912409751</v>
+        <v>0.4703620757030358</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.739504397546579</v>
+        <v>0.7472627645106666</v>
       </c>
     </row>
     <row r="36">
@@ -2677,19 +2677,19 @@
         <v>3470</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>989</v>
+        <v>1040</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8662</v>
+        <v>9190</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.07902647836147415</v>
+        <v>0.07902647836147414</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02252941986027356</v>
+        <v>0.02368037149476716</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1972435260258487</v>
+        <v>0.2092799497503001</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -2698,19 +2698,19 @@
         <v>5544</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1576</v>
+        <v>1415</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>12270</v>
+        <v>11333</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.2821820767042219</v>
+        <v>0.2821820767042218</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08021558612392138</v>
+        <v>0.07201112624891727</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6245287215020197</v>
+        <v>0.5768262464206552</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7</v>
@@ -2719,19 +2719,19 @@
         <v>9014</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3953</v>
+        <v>3356</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>17634</v>
+        <v>17452</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1418237991495227</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.062194442871929</v>
+        <v>0.0528054024079764</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2774330586674529</v>
+        <v>0.2745792308054777</v>
       </c>
     </row>
     <row r="37">
@@ -2748,19 +2748,19 @@
         <v>26368</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>18605</v>
+        <v>18779</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>33245</v>
+        <v>33492</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.6004684147693601</v>
+        <v>0.6004684147693603</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4236716449321791</v>
+        <v>0.4276396931986537</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7570648558077502</v>
+        <v>0.76269480268961</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>7</v>
@@ -2769,19 +2769,19 @@
         <v>6125</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2504</v>
+        <v>2643</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>11741</v>
+        <v>11622</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.3117733285144161</v>
+        <v>0.311773328514416</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1274466165577649</v>
+        <v>0.1345198873531429</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5975962653658955</v>
+        <v>0.5915396856550078</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>30</v>
@@ -2790,19 +2790,19 @@
         <v>32494</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>23188</v>
+        <v>23203</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>41420</v>
+        <v>41304</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.5112300275953142</v>
+        <v>0.5112300275953144</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3648214491675545</v>
+        <v>0.3650606672596494</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6516722629135033</v>
+        <v>0.6498459837885072</v>
       </c>
     </row>
     <row r="38">
@@ -2822,16 +2822,16 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>6926</v>
+        <v>6541</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.0493847298762293</v>
+        <v>0.04938472987622931</v>
       </c>
       <c r="H38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1577163933121601</v>
+        <v>0.1489475894662299</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>8669</v>
+        <v>8237</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1408651963077205</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4412533661202812</v>
+        <v>0.4192666780206805</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>4</v>
@@ -2861,19 +2861,19 @@
         <v>4936</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1536</v>
+        <v>1184</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>12011</v>
+        <v>12079</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.07766220902620884</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02417029877576028</v>
+        <v>0.01862131987769922</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1889736471241115</v>
+        <v>0.1900334718098679</v>
       </c>
     </row>
     <row r="39">
@@ -2894,19 +2894,19 @@
         <v>9140</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>4416</v>
+        <v>4302</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>16432</v>
+        <v>17323</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1954432353235169</v>
+        <v>0.1954432353235168</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.09443038785528382</v>
+        <v>0.09199404656060362</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3513799516974839</v>
+        <v>0.3704302826259785</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>4</v>
@@ -2915,19 +2915,19 @@
         <v>3427</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>833</v>
+        <v>782</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>7662</v>
+        <v>8105</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1855409298673897</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.04511478532449803</v>
+        <v>0.04234993104526326</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.4147624971248302</v>
+        <v>0.4387669974941621</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>11</v>
@@ -2936,19 +2936,19 @@
         <v>12567</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>6288</v>
+        <v>6629</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>20361</v>
+        <v>20941</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1926392308540978</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.09638313123218133</v>
+        <v>0.1016096672495581</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3121142708892752</v>
+        <v>0.3210113648346791</v>
       </c>
     </row>
     <row r="40">
@@ -2965,19 +2965,19 @@
         <v>25734</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>17768</v>
+        <v>17860</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>33990</v>
+        <v>33234</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.5502911259363436</v>
+        <v>0.5502911259363434</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3799438000710173</v>
+        <v>0.3819153505960172</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.7268503491077424</v>
+        <v>0.7106851920179321</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>14</v>
@@ -2986,19 +2986,19 @@
         <v>13237</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>7939</v>
+        <v>8628</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>16284</v>
+        <v>16667</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.7165574183629614</v>
+        <v>0.7165574183629612</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.4297514984970745</v>
+        <v>0.4670711007724454</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.8815124520302304</v>
+        <v>0.9022301476483079</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>36</v>
@@ -3007,19 +3007,19 @@
         <v>38970</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>30808</v>
+        <v>29783</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>47675</v>
+        <v>47119</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.5973722252968447</v>
+        <v>0.5973722252968449</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.4722488630450548</v>
+        <v>0.4565450606978994</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.7308102427822624</v>
+        <v>0.7222879095440392</v>
       </c>
     </row>
     <row r="41">
@@ -3036,19 +3036,19 @@
         <v>14234</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7636</v>
+        <v>7631</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>22525</v>
+        <v>21774</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.3043868272823702</v>
+        <v>0.3043868272823701</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1632924256498261</v>
+        <v>0.1631860645340484</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.481679881394659</v>
+        <v>0.4656151647136064</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>3</v>
@@ -3057,19 +3057,19 @@
         <v>2576</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>6841</v>
+        <v>6883</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.1394219785223239</v>
+        <v>0.1394219785223238</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03235903172106894</v>
+        <v>0.03161222226602945</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3703323385655082</v>
+        <v>0.3725941030388166</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>13</v>
@@ -3078,19 +3078,19 @@
         <v>16810</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>9528</v>
+        <v>9799</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>25990</v>
+        <v>26360</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2576742536024721</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1460541758978628</v>
+        <v>0.1502059181604443</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3984069346149495</v>
+        <v>0.4040780171163707</v>
       </c>
     </row>
     <row r="42">
@@ -3107,19 +3107,19 @@
         <v>30293</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>22755</v>
+        <v>21842</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>36963</v>
+        <v>36379</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.6477916134872589</v>
+        <v>0.6477916134872586</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4865837839105327</v>
+        <v>0.467069309747212</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.7904054619275254</v>
+        <v>0.7779327538060292</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>11</v>
@@ -3128,19 +3128,19 @@
         <v>10249</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>5519</v>
+        <v>5534</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>14688</v>
+        <v>14310</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.5547871870158344</v>
+        <v>0.5547871870158342</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2987746805152521</v>
+        <v>0.299585102238838</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.79512673773936</v>
+        <v>0.7746410008396277</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>36</v>
@@ -3149,19 +3149,19 @@
         <v>40541</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>31739</v>
+        <v>31920</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>48637</v>
+        <v>48628</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.6214558446446342</v>
+        <v>0.6214558446446341</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4865286229328745</v>
+        <v>0.4893024731677564</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.7455546206466452</v>
+        <v>0.7454142328459296</v>
       </c>
     </row>
     <row r="43">
@@ -3194,16 +3194,16 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>5716</v>
+        <v>6868</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.07323246674610855</v>
+        <v>0.07323246674610853</v>
       </c>
       <c r="O43" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3093994980433091</v>
+        <v>0.3717876007188135</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>6442</v>
+        <v>7560</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02073700563696568</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.09875163350979217</v>
+        <v>0.11588592345272</v>
       </c>
     </row>
     <row r="44">
@@ -3245,19 +3245,19 @@
         <v>38147</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>25446</v>
+        <v>26703</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>53904</v>
+        <v>54641</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2362308275447026</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1575765604777465</v>
+        <v>0.1653606973644928</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3338082151575512</v>
+        <v>0.3383738396584019</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>13</v>
@@ -3266,19 +3266,19 @@
         <v>14782</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>8600</v>
+        <v>8256</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>23478</v>
+        <v>23814</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2302954889663085</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1339826548733907</v>
+        <v>0.12863137435468</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3657872226734415</v>
+        <v>0.3710113888716917</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>41</v>
@@ -3287,19 +3287,19 @@
         <v>52929</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>38324</v>
+        <v>38992</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>70043</v>
+        <v>69823</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.2345426558365788</v>
+        <v>0.2345426558365789</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1698232694609911</v>
+        <v>0.1727863487355024</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3103814188188403</v>
+        <v>0.3094078430650751</v>
       </c>
     </row>
     <row r="45">
@@ -3316,19 +3316,19 @@
         <v>106085</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>91857</v>
+        <v>91185</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>119574</v>
+        <v>118008</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.6569461383875637</v>
+        <v>0.6569461383875638</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5688369954773019</v>
+        <v>0.5646761471249696</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7404801971267296</v>
+        <v>0.7307816365087456</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>47</v>
@@ -3337,19 +3337,19 @@
         <v>46314</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>38025</v>
+        <v>37641</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>52649</v>
+        <v>52170</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.7215597749616647</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.5924122426344444</v>
+        <v>0.5864346551589851</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.8202489970531842</v>
+        <v>0.8127950327162022</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>138</v>
@@ -3358,19 +3358,19 @@
         <v>152399</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>136811</v>
+        <v>134958</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>168046</v>
+        <v>166921</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.6753240138503815</v>
+        <v>0.6753240138503817</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.6062485960240516</v>
+        <v>0.5980394547020849</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.7446589097773142</v>
+        <v>0.7396745653167198</v>
       </c>
     </row>
     <row r="46">
@@ -3387,19 +3387,19 @@
         <v>28174</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>18794</v>
+        <v>18038</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>41748</v>
+        <v>40854</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1744712219838913</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.116383155171635</v>
+        <v>0.1117042471662311</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2585276312996014</v>
+        <v>0.2529928141080319</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>9</v>
@@ -3408,19 +3408,19 @@
         <v>10090</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>4894</v>
+        <v>4761</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>18331</v>
+        <v>17769</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.1571953754919922</v>
+        <v>0.1571953754919921</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.07625386904821474</v>
+        <v>0.07416928853873299</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2855919027166107</v>
+        <v>0.2768327104271247</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>31</v>
@@ -3429,19 +3429,19 @@
         <v>38264</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>25894</v>
+        <v>25768</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>52445</v>
+        <v>52784</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1695575014106997</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1147421635213157</v>
+        <v>0.1141848791583843</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2323980087816395</v>
+        <v>0.2338994735943356</v>
       </c>
     </row>
     <row r="47">
@@ -3458,19 +3458,19 @@
         <v>87085</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>72184</v>
+        <v>73116</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>101146</v>
+        <v>101364</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.539288938615168</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.4470075032857427</v>
+        <v>0.4527812067133346</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.6263623911309903</v>
+        <v>0.6277109865245951</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>27</v>
@@ -3479,19 +3479,19 @@
         <v>22705</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>15665</v>
+        <v>15489</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>31064</v>
+        <v>30695</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3537340527537338</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2440492390393927</v>
+        <v>0.2413209555629142</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.4839652534311091</v>
+        <v>0.4782211875867206</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>111</v>
@@ -3500,19 +3500,19 @@
         <v>109790</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>91922</v>
+        <v>92849</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>125832</v>
+        <v>126297</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.4865120827579986</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.4073340262968337</v>
+        <v>0.4114413595449786</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.5575964036351473</v>
+        <v>0.5596571358005443</v>
       </c>
     </row>
     <row r="48">
@@ -3529,19 +3529,19 @@
         <v>3093</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7866</v>
+        <v>8772</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01915236672268698</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.005588732106044193</v>
+        <v>0.005553815850899205</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.04871288218933682</v>
+        <v>0.05432113028528174</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>4</v>
@@ -3550,19 +3550,19 @@
         <v>5064</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1696</v>
+        <v>1511</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>11706</v>
+        <v>12090</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.07889410418588261</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.02642293420346502</v>
+        <v>0.02354418414981079</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1823764713317461</v>
+        <v>0.1883524253602137</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>7</v>
@@ -3571,19 +3571,19 @@
         <v>8157</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>3333</v>
+        <v>3566</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>17106</v>
+        <v>16816</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.03614454158304858</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.01477083633735992</v>
+        <v>0.01580313598720652</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.07580308796015882</v>
+        <v>0.0745186549424373</v>
       </c>
     </row>
     <row r="49">
